--- a/dashboard_loader/housing_homelessness_uploader/housing_homelessness.xlsx
+++ b/dashboard_loader/housing_homelessness_uploader/housing_homelessness.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" state="visible" r:id="rId2"/>
@@ -21,9 +21,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="30">
   <si>
     <t xml:space="preserve">Number of people who were homeless, by state and territory, 2006 and 2011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Year</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unit</t>
   </si>
   <si>
     <t xml:space="preserve">NSW</t>
@@ -117,32 +123,27 @@
     <numFmt numFmtId="166" formatCode="#########\ ###\ ##0.0;\-#########\ ###\ ##0.0;\–"/>
     <numFmt numFmtId="167" formatCode="#,##0"/>
   </numFmts>
-  <fonts count="11">
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
+  <fonts count="9">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
     </font>
     <font>
       <b val="true"/>
@@ -160,8 +161,9 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="12"/>
-      <name val="Calibri"/>
+      <b val="true"/>
+      <sz val="10"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
@@ -174,14 +176,6 @@
     </font>
     <font>
       <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
@@ -204,7 +198,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="23">
+  <cellStyleXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -228,29 +222,17 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="12">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -258,39 +240,31 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="7" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="2" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -299,16 +273,13 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="9">
+  <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
     <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="Microsoft Excel found an error in the formula you entered. Do you want to accept the correction proposed below?&#10;&#10;|&#10;&#10;• To accept the correction, click Yes.&#10;• To close this message and correct the formula yourself, click No. 16 2" xfId="20" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Normal_AIHW RoGS indicator concordance_NHA PI 13 4 yo health check" xfId="21" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Normal 152" xfId="22" builtinId="53" customBuiltin="true"/>
   </cellStyles>
 </styleSheet>
 </file>
@@ -318,17 +289,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:P10"/>
+  <dimension ref="A1:M9"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A12" activeCellId="0" sqref="A12"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B14" activeCellId="0" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="4" min="1" style="0" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="15.3265306122449"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.1173469387755"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="11.3418367346939"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -347,283 +318,273 @@
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
     </row>
     <row r="2" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2"/>
-      <c r="P2" s="3"/>
-    </row>
-    <row r="3" customFormat="false" ht="15.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F3" s="4" t="s">
+      <c r="M2" s="3"/>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="B3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="C3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="D3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="E3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="K3" s="4" t="s">
+      <c r="F3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="L3" s="4" t="s">
+      <c r="G3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="M3" s="4" t="s">
+      <c r="H3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="N3" s="4" t="s">
+      <c r="I3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="P3" s="3"/>
+      <c r="J3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="M3" s="3"/>
     </row>
     <row r="4" customFormat="false" ht="15.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="5" t="n">
+      <c r="A4" s="6" t="n">
         <v>2006</v>
       </c>
-      <c r="C4" s="6"/>
-      <c r="E4" s="7" t="s">
-        <v>10</v>
+      <c r="B4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="8" t="n">
+        <v>22219</v>
+      </c>
+      <c r="D4" s="8" t="n">
+        <v>17410</v>
+      </c>
+      <c r="E4" s="8" t="n">
+        <v>18856</v>
       </c>
       <c r="F4" s="8" t="n">
-        <v>22219</v>
+        <v>8277</v>
       </c>
       <c r="G4" s="8" t="n">
-        <v>17410</v>
+        <v>5607</v>
       </c>
       <c r="H4" s="8" t="n">
-        <v>18856</v>
+        <v>1145</v>
       </c>
       <c r="I4" s="8" t="n">
-        <v>8277</v>
+        <v>949</v>
       </c>
       <c r="J4" s="8" t="n">
-        <v>5607</v>
+        <v>15265</v>
       </c>
       <c r="K4" s="8" t="n">
-        <v>1145</v>
-      </c>
-      <c r="L4" s="8" t="n">
-        <v>949</v>
-      </c>
-      <c r="M4" s="8" t="n">
-        <v>15265</v>
-      </c>
-      <c r="N4" s="8" t="n">
         <v>89728</v>
       </c>
-      <c r="P4" s="3"/>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="9"/>
-      <c r="C5" s="10"/>
-      <c r="E5" s="7" t="s">
-        <v>11</v>
+      <c r="M4" s="3"/>
+    </row>
+    <row r="5" customFormat="false" ht="15.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="6" t="n">
+        <v>2006</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="8" t="n">
+        <v>25</v>
+      </c>
+      <c r="D5" s="8" t="n">
+        <v>19</v>
+      </c>
+      <c r="E5" s="8" t="n">
+        <v>21</v>
       </c>
       <c r="F5" s="8" t="n">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="G5" s="8" t="n">
+        <v>6</v>
+      </c>
+      <c r="H5" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="I5" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="J5" s="8" t="n">
+        <v>17</v>
+      </c>
+      <c r="K5" s="8" t="n">
+        <v>100</v>
+      </c>
+      <c r="M5" s="3"/>
+    </row>
+    <row r="6" customFormat="false" ht="15.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="6" t="n">
+        <v>2006</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="8" t="n">
+        <v>33.9</v>
+      </c>
+      <c r="D6" s="8" t="n">
+        <v>35.3</v>
+      </c>
+      <c r="E6" s="8" t="n">
+        <v>48.3</v>
+      </c>
+      <c r="F6" s="8" t="n">
+        <v>42.3</v>
+      </c>
+      <c r="G6" s="8" t="n">
+        <v>37</v>
+      </c>
+      <c r="H6" s="8" t="n">
+        <v>24</v>
+      </c>
+      <c r="I6" s="8" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="J6" s="8" t="n">
+        <v>791.7</v>
+      </c>
+      <c r="K6" s="8" t="n">
+        <v>45.2</v>
+      </c>
+      <c r="M6" s="3"/>
+    </row>
+    <row r="7" customFormat="false" ht="15.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="6" t="n">
+        <v>2011</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="8" t="n">
+        <v>28190</v>
+      </c>
+      <c r="D7" s="8" t="n">
+        <v>22789</v>
+      </c>
+      <c r="E7" s="8" t="n">
+        <v>19838</v>
+      </c>
+      <c r="F7" s="8" t="n">
+        <v>9592</v>
+      </c>
+      <c r="G7" s="8" t="n">
+        <v>5985</v>
+      </c>
+      <c r="H7" s="8" t="n">
+        <v>1579</v>
+      </c>
+      <c r="I7" s="8" t="n">
+        <v>1785</v>
+      </c>
+      <c r="J7" s="8" t="n">
+        <v>15479</v>
+      </c>
+      <c r="K7" s="8" t="n">
+        <v>105237</v>
+      </c>
+      <c r="L7" s="10"/>
+      <c r="M7" s="3"/>
+    </row>
+    <row r="8" customFormat="false" ht="15.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="6" t="n">
+        <v>2011</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="8" t="n">
+        <v>27</v>
+      </c>
+      <c r="D8" s="8" t="n">
+        <v>22</v>
+      </c>
+      <c r="E8" s="8" t="n">
         <v>19</v>
       </c>
-      <c r="H5" s="8" t="n">
-        <v>21</v>
-      </c>
-      <c r="I5" s="8" t="n">
+      <c r="F8" s="8" t="n">
         <v>9</v>
       </c>
-      <c r="J5" s="8" t="n">
+      <c r="G8" s="8" t="n">
         <v>6</v>
       </c>
-      <c r="K5" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="L5" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" s="8" t="n">
-        <v>17</v>
-      </c>
-      <c r="N5" s="8" t="n">
+      <c r="H8" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="I8" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="J8" s="8" t="n">
+        <v>15</v>
+      </c>
+      <c r="K8" s="8" t="n">
         <v>100</v>
       </c>
-      <c r="P5" s="3"/>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="9"/>
-      <c r="C6" s="10"/>
-      <c r="E6" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6" s="8" t="n">
-        <v>33.9</v>
-      </c>
-      <c r="G6" s="8" t="n">
-        <v>35.3</v>
-      </c>
-      <c r="H6" s="8" t="n">
-        <v>48.3</v>
-      </c>
-      <c r="I6" s="8" t="n">
-        <v>42.3</v>
-      </c>
-      <c r="J6" s="8" t="n">
-        <v>37</v>
-      </c>
-      <c r="K6" s="8" t="n">
-        <v>24</v>
-      </c>
-      <c r="L6" s="8" t="n">
-        <v>29.3</v>
-      </c>
-      <c r="M6" s="8" t="n">
-        <v>791.7</v>
-      </c>
-      <c r="N6" s="8" t="n">
-        <v>45.2</v>
-      </c>
-      <c r="P6" s="3"/>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="9"/>
-      <c r="C7" s="10"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="8"/>
-      <c r="L7" s="8"/>
-      <c r="M7" s="8"/>
-      <c r="N7" s="8"/>
-      <c r="P7" s="3"/>
-    </row>
-    <row r="8" customFormat="false" ht="15.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="5" t="n">
+      <c r="L8" s="10"/>
+      <c r="M8" s="3"/>
+    </row>
+    <row r="9" customFormat="false" ht="15.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="6" t="n">
         <v>2011</v>
       </c>
-      <c r="C8" s="6"/>
-      <c r="E8" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="F8" s="8" t="n">
-        <v>28190</v>
-      </c>
-      <c r="G8" s="8" t="n">
-        <v>22789</v>
-      </c>
-      <c r="H8" s="8" t="n">
-        <v>19838</v>
-      </c>
-      <c r="I8" s="8" t="n">
-        <v>9592</v>
-      </c>
-      <c r="J8" s="8" t="n">
-        <v>5985</v>
-      </c>
-      <c r="K8" s="8" t="n">
-        <v>1579</v>
-      </c>
-      <c r="L8" s="8" t="n">
-        <v>1785</v>
-      </c>
-      <c r="M8" s="8" t="n">
-        <v>15479</v>
-      </c>
-      <c r="N8" s="8" t="n">
-        <v>105237</v>
-      </c>
-      <c r="O8" s="12"/>
-      <c r="P8" s="3"/>
-    </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="9"/>
-      <c r="C9" s="10"/>
-      <c r="E9" s="11" t="s">
-        <v>11</v>
+      <c r="B9" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="8" t="n">
+        <v>40.8</v>
+      </c>
+      <c r="D9" s="8" t="n">
+        <v>42.6</v>
+      </c>
+      <c r="E9" s="8" t="n">
+        <v>45.8</v>
       </c>
       <c r="F9" s="8" t="n">
-        <v>27</v>
+        <v>42.8</v>
       </c>
       <c r="G9" s="8" t="n">
-        <v>22</v>
+        <v>37.5</v>
       </c>
       <c r="H9" s="8" t="n">
-        <v>19</v>
+        <v>31.9</v>
       </c>
       <c r="I9" s="8" t="n">
-        <v>9</v>
+        <v>50</v>
       </c>
       <c r="J9" s="8" t="n">
-        <v>6</v>
+        <v>730.7</v>
       </c>
       <c r="K9" s="8" t="n">
-        <v>2</v>
-      </c>
-      <c r="L9" s="8" t="n">
-        <v>2</v>
-      </c>
-      <c r="M9" s="8" t="n">
-        <v>15</v>
-      </c>
-      <c r="N9" s="8" t="n">
-        <v>100</v>
-      </c>
-      <c r="O9" s="12"/>
-      <c r="P9" s="3"/>
-    </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="9"/>
-      <c r="C10" s="10"/>
-      <c r="E10" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F10" s="8" t="n">
-        <v>40.8</v>
-      </c>
-      <c r="G10" s="8" t="n">
-        <v>42.6</v>
-      </c>
-      <c r="H10" s="8" t="n">
-        <v>45.8</v>
-      </c>
-      <c r="I10" s="8" t="n">
-        <v>42.8</v>
-      </c>
-      <c r="J10" s="8" t="n">
-        <v>37.5</v>
-      </c>
-      <c r="K10" s="8" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="L10" s="8" t="n">
-        <v>50</v>
-      </c>
-      <c r="M10" s="8" t="n">
-        <v>730.7</v>
-      </c>
-      <c r="N10" s="8" t="n">
         <v>48.9</v>
       </c>
-      <c r="O10" s="12"/>
-      <c r="P10" s="3"/>
+      <c r="L9" s="10"/>
+      <c r="M9" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:P1"/>
+    <mergeCell ref="A1:M1"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -636,93 +597,93 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B11"/>
+  <dimension ref="A3:B13"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="72.5255102040816"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="71.6785714285714"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="11.3418367346939"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="B1" s="0" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="0" t="n">
+      <c r="B3" s="0" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="0" t="n">
         <v>2012</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="110.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" s="13" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="62.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B4" s="13" t="s">
+    <row r="5" customFormat="false" ht="110.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="5" customFormat="false" ht="44.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+      <c r="B5" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="13" t="s">
+    </row>
+    <row r="6" customFormat="false" ht="62.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B6" s="11" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="29.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+    <row r="7" customFormat="false" ht="44.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B7" s="11" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="21.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B7" s="13" t="s">
+    <row r="8" customFormat="false" ht="29.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="8" customFormat="false" ht="38.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="11" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="29.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B9" s="13" t="s">
+    <row r="9" customFormat="false" ht="21.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B9" s="11" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="0" t="s">
+    <row r="10" customFormat="false" ht="38.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B10" s="11" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="0" t="s">
+    <row r="11" customFormat="false" ht="29.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B11" s="11" t="s">
         <v>27</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B12" s="0" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B13" s="0" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>

--- a/dashboard_loader/housing_homelessness_uploader/housing_homelessness.xlsx
+++ b/dashboard_loader/housing_homelessness_uploader/housing_homelessness.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="34">
   <si>
     <t xml:space="preserve">Number of people who were homeless, by state and territory, 2006 and 2011</t>
   </si>
@@ -66,6 +66,18 @@
   </si>
   <si>
     <t xml:space="preserve">rate per 10k</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Measure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">From 2007–08 to 2015–16, a 10% reduction nationally in the proportion of low-income renter households in rental stress</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Short title</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reduce rental stress</t>
   </si>
   <si>
     <t xml:space="preserve">Status</t>
@@ -123,7 +135,7 @@
     <numFmt numFmtId="166" formatCode="#########\ ###\ ##0.0;\-#########\ ###\ ##0.0;\–"/>
     <numFmt numFmtId="167" formatCode="#,##0"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -177,6 +189,12 @@
     <font>
       <sz val="12"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
@@ -223,7 +241,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -265,6 +283,14 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -297,9 +323,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.3418367346939"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.1173469387755"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="14.8469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -597,30 +621,44 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A3:B13"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.3418367346939"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="71.6785714285714"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="70.8724489795918"/>
   </cols>
   <sheetData>
+    <row r="1" customFormat="false" ht="26.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>18</v>
+      </c>
+    </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>2012</v>
@@ -628,56 +666,56 @@
     </row>
     <row r="5" customFormat="false" ht="110.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>19</v>
+        <v>22</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="62.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B6" s="11" t="s">
-        <v>20</v>
+      <c r="B6" s="13" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="44.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>22</v>
+        <v>25</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="29.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" s="11" t="s">
-        <v>24</v>
+        <v>27</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="21.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B9" s="11" t="s">
-        <v>25</v>
+      <c r="B9" s="13" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="38.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B10" s="11" t="s">
-        <v>26</v>
+      <c r="B10" s="13" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="29.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B11" s="11" t="s">
-        <v>27</v>
+      <c r="B11" s="13" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="0" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="0" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/dashboard_loader/housing_homelessness_uploader/housing_homelessness.xlsx
+++ b/dashboard_loader/housing_homelessness_uploader/housing_homelessness.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" state="visible" r:id="rId2"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="39">
   <si>
     <t xml:space="preserve">Number of people who were homeless, by state and territory, 2006 and 2011</t>
   </si>
@@ -71,13 +71,13 @@
     <t xml:space="preserve">Measure</t>
   </si>
   <si>
-    <t xml:space="preserve">From 2007–08 to 2015–16, a 10% reduction nationally in the proportion of low-income renter households in rental stress</t>
+    <t xml:space="preserve">From 2006 to 2013, a 7 per cent reduction nationally in the number of homeless Australians</t>
   </si>
   <si>
     <t xml:space="preserve">Short title</t>
   </si>
   <si>
-    <t xml:space="preserve">Reduce rental stress</t>
+    <t xml:space="preserve">Reduce homelessness</t>
   </si>
   <si>
     <t xml:space="preserve">Status</t>
@@ -92,7 +92,36 @@
     <t xml:space="preserve">Desc Body</t>
   </si>
   <si>
-    <t xml:space="preserve">The number of homeless persons rose from just under 90,000 in 2006 to over 105,000 in 2011, a 17.3% increase. Data to assess whether this benchmark has been achieved will not be available until the next Census, but it seems unlikely. The proportion of homeless Australians increased, even accounting for population increase. For every 10,000 persons that were counted in Australia, there were 48.9 persons homeless on Census night in 2011 compared to 45.2 persons per 10,000 on Census night in 2006—an increase of 8%.</t>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF00000A"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">The number of homeless persons rose from just under 90,000 in 2006 to over 105,000 in 2011, a 17.3 per cent increase. Data to assess whether this benchmark has been achieved will become available throughout 2017-18 as the 2016 Census is released, but it seems unlikely to have been met. Between 2006 and 2011, the proportion of homeless Australians increased. For every 10,000 persons that were counted in Australia, there were 48.9 persons homeless on Census night in 2011 compared to 45.2 persons per 10,000 on Census night in 2006 </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <color rgb="FF545454"/>
+        <rFont val="Arial"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">–</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF00000A"/>
+        <rFont val=""/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> an increase of 8 per cent. </t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">Within the overall increase, the number of rough sleepers decreased from 7,247 in 2006 to 6,813 in 2011 (CRC, 2013).</t>
@@ -123,6 +152,21 @@
   </si>
   <si>
     <t xml:space="preserve">in ‘severely’ crowded dwellings.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Source</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ABS Census of Population and Housing, various years.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">References</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COAG Reform Council (CRC), 2013, Homelessness 2011–12: Comparing performance across Australia.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Australian Institute of Health and Welfare (AIHW), 2014b, Specialist homelessness services 2013–14. Cat. no. HOU 276. Canberra: AIHW.</t>
   </si>
 </sst>
 </file>
@@ -135,7 +179,7 @@
     <numFmt numFmtId="166" formatCode="#########\ ###\ ##0.0;\-#########\ ###\ ##0.0;\–"/>
     <numFmt numFmtId="167" formatCode="#,##0"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="24">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -156,6 +200,87 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="24"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <i val="true"/>
+      <sz val="10"/>
+      <color rgb="FF808080"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF006600"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF996600"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFCC0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -194,20 +319,83 @@
     </font>
     <font>
       <sz val="12"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <color rgb="FF00000A"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="12"/>
+      <color rgb="FF545454"/>
+      <name val="Arial"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF00000A"/>
+      <name val=""/>
+      <family val="1"/>
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCFFCC"/>
+        <bgColor rgb="FFCCFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCCCC"/>
+        <bgColor rgb="FFDDDDDD"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCC0000"/>
+        <bgColor rgb="FF800000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF000000"/>
+        <bgColor rgb="FF00000A"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF808080"/>
+        <bgColor rgb="FF969696"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDDDDDD"/>
+        <bgColor rgb="FFFFCCCC"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -215,8 +403,23 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin">
+        <color rgb="FF808080"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF808080"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF808080"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF808080"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="20">
+  <cellStyleXfs count="36">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -240,17 +443,65 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="1" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="4" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="5" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="6" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="7" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="8" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -258,55 +509,139 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="22">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
     <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+    <cellStyle name="Heading" xfId="20" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Heading 1" xfId="21" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Heading 2" xfId="22" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Text" xfId="23" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Note" xfId="24" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Footnote" xfId="25" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Status" xfId="26" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Good" xfId="27" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Neutral" xfId="28" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Bad" xfId="29" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Warning" xfId="30" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Error" xfId="31" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Accent" xfId="32" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Accent 1" xfId="33" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Accent 2" xfId="34" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Accent 3" xfId="35" builtinId="53" customBuiltin="true"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFCC0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF006600"/>
+      <rgbColor rgb="FF00000A"/>
+      <rgbColor rgb="FF996600"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFDDDDDD"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCCCC"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF545454"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -317,13 +652,15 @@
   </sheetPr>
   <dimension ref="A1:M9"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B14" activeCellId="0" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="14.8469387755102"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="14.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="8.67"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -621,18 +958,20 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B17" activeCellId="0" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="70.8724489795918"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.73"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="70.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="8.67"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="26.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
         <v>15</v>
       </c>
@@ -664,7 +1003,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="110.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="116.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
         <v>22</v>
       </c>
@@ -673,7 +1012,7 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="62.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="14" t="s">
         <v>24</v>
       </c>
     </row>
@@ -681,7 +1020,7 @@
       <c r="A7" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="14" t="s">
         <v>26</v>
       </c>
     </row>
@@ -689,22 +1028,22 @@
       <c r="A8" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="14" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="21.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="14" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="38.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="14" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="29.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B11" s="13" t="s">
+      <c r="B11" s="14" t="s">
         <v>31</v>
       </c>
     </row>
@@ -716,6 +1055,27 @@
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="0" t="s">
         <v>33</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="B15" s="15" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B16" s="15" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
